--- a/Genre.xlsx
+++ b/Genre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\PycharmProjects\Library_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C855BF-85AD-47F2-A14A-ADA199F04BA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB2332A-CF4F-4F37-A7CE-1DF73843F04E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
   </bookViews>
@@ -508,9 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB81966-232A-4466-BA73-40E43D7BC7D8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Genre.xlsx
+++ b/Genre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\PycharmProjects\Library_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB2332A-CF4F-4F37-A7CE-1DF73843F04E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A30952-13F2-4E79-B15E-AC126385F69C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Genre</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>Dubstep</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Synth</t>
+  </si>
+  <si>
+    <t>Detroit</t>
   </si>
 </sst>
 </file>
@@ -506,9 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB81966-232A-4466-BA73-40E43D7BC7D8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -540,7 +551,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -554,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -568,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -582,7 +593,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -596,7 +607,7 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -610,7 +621,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,7 +632,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,7 +643,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +654,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,15 +665,27 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Genre.xlsx
+++ b/Genre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\PycharmProjects\Library_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A30952-13F2-4E79-B15E-AC126385F69C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F0FD4-3591-48E8-8358-85B7F2375169}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Genre</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Detroit</t>
+  </si>
+  <si>
+    <t>Hardcore</t>
+  </si>
+  <si>
+    <t>Big-Beat</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Hip-Hop</t>
   </si>
 </sst>
 </file>
@@ -515,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB81966-232A-4466-BA73-40E43D7BC7D8}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +681,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -677,11 +692,22 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Genre.xlsx
+++ b/Genre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\PycharmProjects\Library_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F0FD4-3591-48E8-8358-85B7F2375169}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB8EB8-0D50-42BB-A92C-031A50D3C6ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Drone</t>
   </si>
   <si>
-    <t>Funk</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
@@ -165,13 +162,16 @@
     <t>Hardcore</t>
   </si>
   <si>
-    <t>Big-Beat</t>
-  </si>
-  <si>
     <t>Deep</t>
   </si>
   <si>
     <t>Hip-Hop</t>
+  </si>
+  <si>
+    <t>Big Beat</t>
+  </si>
+  <si>
+    <t>Funky</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -666,15 +666,15 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -682,32 +682,32 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Genre.xlsx
+++ b/Genre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\PycharmProjects\Library_Manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\PycharmProjects\Library_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB8EB8-0D50-42BB-A92C-031A50D3C6ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B5D46-5C27-4382-B2CA-43B339B0BAA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Genre</t>
   </si>
@@ -172,6 +172,33 @@
   </si>
   <si>
     <t>Funky</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Piano-house</t>
+  </si>
+  <si>
+    <t>Roller</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Jump-Up</t>
+  </si>
+  <si>
+    <t>Melodic</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -207,12 +234,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB81966-232A-4466-BA73-40E43D7BC7D8}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +571,7 @@
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +584,11 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -568,8 +601,11 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -583,7 +619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -597,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -611,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -625,7 +661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -635,8 +671,11 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -647,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -658,7 +697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -669,7 +708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -680,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -691,7 +730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -702,12 +741,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Genre.xlsx
+++ b/Genre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\PycharmProjects\Library_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B5D46-5C27-4382-B2CA-43B339B0BAA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B71D1BC-EDEC-442E-B49A-C31634937572}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
+    <workbookView xWindow="19935" yWindow="6690" windowWidth="21600" windowHeight="11385" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Genre</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t>Ambient</t>
+  </si>
+  <si>
+    <t>Downtempo</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Warm-Up</t>
+  </si>
+  <si>
+    <t>Peak-Time</t>
+  </si>
+  <si>
+    <t>Closing</t>
+  </si>
+  <si>
+    <t>Spacing</t>
   </si>
 </sst>
 </file>
@@ -557,21 +578,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB81966-232A-4466-BA73-40E43D7BC7D8}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D19" sqref="D18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,10 +607,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -601,11 +626,14 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -618,8 +646,11 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -632,8 +663,11 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -646,8 +680,11 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -661,7 +698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -675,7 +712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -686,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -697,7 +734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -708,7 +745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -719,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -730,7 +767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -741,7 +778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -752,7 +789,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -763,7 +800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>53</v>
       </c>
@@ -771,9 +808,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
       <c r="C17" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Genre.xlsx
+++ b/Genre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\PycharmProjects\Library_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B71D1BC-EDEC-442E-B49A-C31634937572}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D516DE80-6F37-4FDF-A9F5-85839A37863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19935" yWindow="6690" windowWidth="21600" windowHeight="11385" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E68DF470-1CD6-4F04-B000-D378EEF6E7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Genre</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Spacing</t>
+  </si>
+  <si>
+    <t>Hardstyle</t>
+  </si>
+  <si>
+    <t>Gabber</t>
   </si>
 </sst>
 </file>
@@ -581,11 +587,12 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:E19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -801,6 +808,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
@@ -808,7 +818,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -816,7 +829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>57</v>
       </c>

--- a/Genre.xlsx
+++ b/Genre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\PycharmProjects\Library_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E8F16-2CA2-4632-A658-ECC107C8CF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF233B7A-25A1-4DEA-9BC6-5FB8C6B38AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>﻿Genre</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Ignore</t>
   </si>
   <si>
-    <t>Garage</t>
-  </si>
-  <si>
     <t>Techno</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>Uplifting</t>
   </si>
   <si>
-    <t>Core Bassline</t>
-  </si>
-  <si>
     <t>Breaks</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>Anthem</t>
   </si>
   <si>
-    <t>Break</t>
-  </si>
-  <si>
     <t>Electro</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>Drone</t>
   </si>
   <si>
-    <t>BPM Change</t>
-  </si>
-  <si>
     <t>Synth</t>
   </si>
   <si>
@@ -259,9 +247,6 @@
     <t>Bootleg</t>
   </si>
   <si>
-    <t>Piano-house</t>
-  </si>
-  <si>
     <t>Melodic</t>
   </si>
   <si>
@@ -274,9 +259,6 @@
     <t>Build-Down</t>
   </si>
   <si>
-    <t>Piano House</t>
-  </si>
-  <si>
     <t>Big Beat</t>
   </si>
   <si>
@@ -295,33 +277,12 @@
     <t>World</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>Metal/Rock</t>
   </si>
   <si>
     <t>Dub</t>
   </si>
   <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Bass</t>
-  </si>
-  <si>
-    <t>CHANGE 1</t>
-  </si>
-  <si>
-    <t>CHANGE 2</t>
-  </si>
-  <si>
-    <t>CHANGE 3</t>
-  </si>
-  <si>
-    <t>CHANGE 4</t>
-  </si>
-  <si>
     <t>Hard Dance Genre</t>
   </si>
   <si>
@@ -331,10 +292,31 @@
     <t>NDM Genres</t>
   </si>
   <si>
-    <t>UK Bass</t>
-  </si>
-  <si>
-    <t>CHANGE 6</t>
+    <t>Glitch</t>
+  </si>
+  <si>
+    <t>Core-Bassline</t>
+  </si>
+  <si>
+    <t>BPM-Change</t>
+  </si>
+  <si>
+    <t>New-Wave</t>
+  </si>
+  <si>
+    <t>Piano-House</t>
+  </si>
+  <si>
+    <t>Hyperpop</t>
+  </si>
+  <si>
+    <t>Horns</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Trance</t>
   </si>
 </sst>
 </file>
@@ -477,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,12 +637,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -854,14 +830,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1217,408 +1192,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="K9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>86</v>
       </c>
     </row>
